--- a/testing/testSuite/src/main/resources/TestInsurancePolicyStandardisation/testSingleValidFeed/SeedData.xlsx
+++ b/testing/testSuite/src/main/resources/TestInsurancePolicyStandardisation/testSingleValidFeed/SeedData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FFC426-3E5A-4923-B8CB-4FC3C1E5FB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="0" windowWidth="20025" windowHeight="10320" tabRatio="725" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="725" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feed" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,25 @@
     <sheet name="insurance_policy_tax_jurisd" sheetId="14" r:id="rId8"/>
     <sheet name="fr_general_codes" sheetId="18" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="270">
   <si>
     <t>N</t>
   </si>
@@ -293,54 +302,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
     <t>DIRECT</t>
   </si>
   <si>
@@ -389,108 +350,9 @@
     <t>HH</t>
   </si>
   <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>CEDED</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -699,9 +561,6 @@
   </si>
   <si>
     <t>Parent LE109</t>
-  </si>
-  <si>
-    <t>110</t>
   </si>
   <si>
     <t>LE110</t>
@@ -992,7 +851,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1043,7 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1055,9 +914,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1087,6 +944,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1401,7 +1259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1411,111 +1269,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="34.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="s">
+    <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>42914</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>43162.654861111114</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="A5" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="13">
         <v>42914</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="E5" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="14">
         <v>43162.655555555553</v>
       </c>
     </row>
@@ -1526,7 +1384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1536,150 +1394,150 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="34.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="11">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="C10" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1689,17 +1547,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -1712,39 +1570,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1776,7 +1634,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1808,20 +1666,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>29</v>
+      <c r="A4" s="17">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1835,25 +1693,25 @@
       <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>271</v>
+      <c r="J4" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
+      <c r="A5" s="17">
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1867,25 +1725,25 @@
       <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>271</v>
+      <c r="J5" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>31</v>
+      <c r="A6" s="17">
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1899,25 +1757,25 @@
       <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>271</v>
+      <c r="J6" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>33</v>
+      <c r="A7" s="17">
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1931,25 +1789,25 @@
       <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>271</v>
+      <c r="J7" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
+      <c r="A8" s="17">
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1963,25 +1821,25 @@
       <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>271</v>
+      <c r="J8" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>85</v>
+      <c r="A9" s="17">
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1995,25 +1853,25 @@
       <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>271</v>
+      <c r="J9" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>86</v>
+      <c r="A10" s="17">
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -2027,25 +1885,25 @@
       <c r="I10" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>271</v>
+      <c r="J10" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>87</v>
+      <c r="A11" s="17">
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -2059,25 +1917,25 @@
       <c r="I11" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>271</v>
+      <c r="J11" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>36</v>
+      <c r="A12" s="17">
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -2091,25 +1949,25 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>271</v>
+      <c r="J12" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>88</v>
+      <c r="A13" s="17">
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -2123,25 +1981,25 @@
       <c r="I13" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>271</v>
+      <c r="J13" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>89</v>
+      <c r="A14" s="17">
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
@@ -2155,25 +2013,25 @@
       <c r="I14" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>271</v>
+      <c r="J14" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>90</v>
+      <c r="A15" s="17">
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
@@ -2187,25 +2045,25 @@
       <c r="I15" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>271</v>
+      <c r="J15" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>91</v>
+      <c r="A16" s="17">
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
@@ -2219,25 +2077,25 @@
       <c r="I16" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>271</v>
+      <c r="J16" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>92</v>
+      <c r="A17" s="17">
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
@@ -2251,25 +2109,25 @@
       <c r="I17" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>271</v>
+      <c r="J17" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>93</v>
+      <c r="A18" s="17">
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
@@ -2283,25 +2141,25 @@
       <c r="I18" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>271</v>
+      <c r="J18" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="16">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
         <v>130</v>
       </c>
-      <c r="B19" t="s">
-        <v>179</v>
-      </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -2315,25 +2173,25 @@
       <c r="I19" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>271</v>
+      <c r="J19" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="16">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
         <v>131</v>
       </c>
-      <c r="B20" t="s">
-        <v>180</v>
-      </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
@@ -2347,25 +2205,25 @@
       <c r="I20" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>271</v>
+      <c r="J20" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="16">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
         <v>132</v>
       </c>
-      <c r="B21" t="s">
-        <v>181</v>
-      </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
@@ -2379,25 +2237,25 @@
       <c r="I21" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>271</v>
+      <c r="J21" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="16">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
         <v>133</v>
       </c>
-      <c r="B22" t="s">
-        <v>182</v>
-      </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F22" t="s">
         <v>24</v>
@@ -2411,25 +2269,25 @@
       <c r="I22" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>271</v>
+      <c r="J22" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="16">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
         <v>134</v>
       </c>
-      <c r="B23" t="s">
-        <v>183</v>
-      </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
@@ -2443,25 +2301,25 @@
       <c r="I23" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>271</v>
+      <c r="J23" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="16">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
         <v>135</v>
       </c>
-      <c r="B24" t="s">
-        <v>184</v>
-      </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -2475,25 +2333,25 @@
       <c r="I24" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="13" t="s">
-        <v>271</v>
+      <c r="J24" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="16">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
         <v>136</v>
       </c>
-      <c r="B25" t="s">
-        <v>185</v>
-      </c>
       <c r="C25" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F25" t="s">
         <v>24</v>
@@ -2507,25 +2365,25 @@
       <c r="I25" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="13" t="s">
-        <v>271</v>
+      <c r="J25" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="16">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
         <v>137</v>
       </c>
-      <c r="B26" t="s">
-        <v>186</v>
-      </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
@@ -2539,25 +2397,25 @@
       <c r="I26" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="13" t="s">
-        <v>271</v>
+      <c r="J26" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="16">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
         <v>138</v>
       </c>
-      <c r="B27" t="s">
-        <v>187</v>
-      </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
@@ -2571,25 +2429,25 @@
       <c r="I27" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>271</v>
+      <c r="J27" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>224</v>
+      <c r="A28" s="16">
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
@@ -2603,25 +2461,25 @@
       <c r="I28" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>271</v>
+      <c r="J28" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="16">
+        <v>201</v>
+      </c>
+      <c r="B29" t="s">
         <v>139</v>
       </c>
-      <c r="B29" t="s">
-        <v>188</v>
-      </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F29" t="s">
         <v>24</v>
@@ -2635,25 +2493,25 @@
       <c r="I29" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>271</v>
+      <c r="J29" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="16">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s">
         <v>140</v>
       </c>
-      <c r="B30" t="s">
-        <v>189</v>
-      </c>
       <c r="C30" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F30" t="s">
         <v>24</v>
@@ -2667,25 +2525,25 @@
       <c r="I30" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>271</v>
+      <c r="J30" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="16">
+        <v>203</v>
+      </c>
+      <c r="B31" t="s">
         <v>141</v>
       </c>
-      <c r="B31" t="s">
-        <v>190</v>
-      </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="D31" t="s">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F31" t="s">
         <v>24</v>
@@ -2699,25 +2557,25 @@
       <c r="I31" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="13" t="s">
-        <v>271</v>
+      <c r="J31" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="16">
+        <v>204</v>
+      </c>
+      <c r="B32" t="s">
         <v>142</v>
       </c>
-      <c r="B32" t="s">
-        <v>191</v>
-      </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F32" t="s">
         <v>24</v>
@@ -2731,25 +2589,25 @@
       <c r="I32" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="13" t="s">
-        <v>271</v>
+      <c r="J32" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="16">
+        <v>205</v>
+      </c>
+      <c r="B33" t="s">
         <v>143</v>
       </c>
-      <c r="B33" t="s">
-        <v>192</v>
-      </c>
       <c r="C33" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F33" t="s">
         <v>24</v>
@@ -2763,25 +2621,25 @@
       <c r="I33" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="13" t="s">
-        <v>271</v>
+      <c r="J33" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="16">
+        <v>206</v>
+      </c>
+      <c r="B34" t="s">
         <v>144</v>
       </c>
-      <c r="B34" t="s">
-        <v>193</v>
-      </c>
       <c r="C34" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F34" t="s">
         <v>24</v>
@@ -2795,25 +2653,25 @@
       <c r="I34" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="13" t="s">
-        <v>271</v>
+      <c r="J34" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="16">
+        <v>207</v>
+      </c>
+      <c r="B35" t="s">
         <v>145</v>
       </c>
-      <c r="B35" t="s">
-        <v>194</v>
-      </c>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s">
         <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F35" t="s">
         <v>24</v>
@@ -2827,25 +2685,25 @@
       <c r="I35" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="13" t="s">
-        <v>271</v>
+      <c r="J35" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="16">
+        <v>208</v>
+      </c>
+      <c r="B36" t="s">
         <v>146</v>
       </c>
-      <c r="B36" t="s">
-        <v>195</v>
-      </c>
       <c r="C36" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="D36" t="s">
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F36" t="s">
         <v>24</v>
@@ -2859,25 +2717,25 @@
       <c r="I36" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="13" t="s">
-        <v>271</v>
+      <c r="J36" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="16">
+        <v>209</v>
+      </c>
+      <c r="B37" t="s">
         <v>147</v>
       </c>
-      <c r="B37" t="s">
-        <v>196</v>
-      </c>
       <c r="C37" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F37" t="s">
         <v>24</v>
@@ -2891,25 +2749,25 @@
       <c r="I37" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="13" t="s">
-        <v>271</v>
+      <c r="J37" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="16">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s">
         <v>148</v>
       </c>
-      <c r="B38" t="s">
-        <v>197</v>
-      </c>
       <c r="C38" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F38" t="s">
         <v>24</v>
@@ -2923,25 +2781,25 @@
       <c r="I38" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="13" t="s">
-        <v>271</v>
+      <c r="J38" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>152</v>
+      <c r="A39" s="16">
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="D39" t="s">
         <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F39" t="s">
         <v>24</v>
@@ -2955,25 +2813,25 @@
       <c r="I39" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="13" t="s">
-        <v>271</v>
+      <c r="J39" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>153</v>
+      <c r="A40" s="16">
+        <v>212</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="D40" t="s">
         <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F40" t="s">
         <v>24</v>
@@ -2987,8 +2845,8 @@
       <c r="I40" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="13" t="s">
-        <v>271</v>
+      <c r="J40" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2997,26 +2855,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
@@ -3032,19 +2890,19 @@
         <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>292</v>
+        <v>241</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>293</v>
+      <c r="F1" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>46</v>
@@ -3052,17 +2910,17 @@
       <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>295</v>
+      <c r="I1" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>51</v>
@@ -3071,16 +2929,16 @@
         <v>50</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>52</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>4</v>
@@ -3091,18 +2949,18 @@
         <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>276</v>
+        <v>226</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -3111,10 +2969,10 @@
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="15" t="s">
         <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -3152,16 +3010,16 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -3170,10 +3028,10 @@
       <c r="H3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -3209,34 +3067,34 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="6">
+        <v>96</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5">
         <v>37256</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>37256</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>94</v>
+      <c r="I4" s="17">
+        <v>2001</v>
+      </c>
+      <c r="J4" s="17">
+        <v>2001</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -3248,7 +3106,7 @@
         <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="P4" t="s">
         <v>30</v>
@@ -3268,38 +3126,38 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>37621</v>
+      </c>
+      <c r="H5" s="5">
+        <v>37621</v>
+      </c>
+      <c r="I5" s="17">
+        <v>2002</v>
+      </c>
+      <c r="J5" s="17">
+        <v>2002</v>
+      </c>
+      <c r="K5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="6">
-        <v>37621</v>
-      </c>
-      <c r="H5" s="6">
-        <v>37621</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L5" t="s">
-        <v>106</v>
-      </c>
       <c r="M5" t="s">
         <v>24</v>
       </c>
@@ -3307,7 +3165,7 @@
         <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="P5" t="s">
         <v>30</v>
@@ -3316,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
         <v>11</v>
@@ -3327,38 +3185,38 @@
         <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5">
+        <v>37986</v>
+      </c>
+      <c r="H6" s="5">
+        <v>37986</v>
+      </c>
+      <c r="I6" s="17">
+        <v>2003</v>
+      </c>
+      <c r="J6" s="17">
+        <v>2003</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="6">
-        <v>37986</v>
-      </c>
-      <c r="H6" s="6">
-        <v>37986</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6" t="s">
-        <v>107</v>
-      </c>
       <c r="M6" t="s">
         <v>24</v>
       </c>
@@ -3366,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="P6" t="s">
         <v>30</v>
@@ -3375,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="S6" t="s">
         <v>11</v>
@@ -3386,31 +3244,31 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="6">
+        <v>99</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4</v>
+      </c>
+      <c r="F7" s="16">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5">
         <v>38352</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>38352</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>99</v>
+      <c r="I7" s="17">
+        <v>2004</v>
       </c>
       <c r="K7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
         <v>25</v>
@@ -3422,7 +3280,7 @@
         <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="P7" t="s">
         <v>35</v>
@@ -3442,31 +3300,31 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="6">
+        <v>100</v>
+      </c>
+      <c r="E8" s="16">
+        <v>5</v>
+      </c>
+      <c r="F8" s="16">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
         <v>38717</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>38717</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>100</v>
+      <c r="I8" s="17">
+        <v>2005</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
         <v>81</v>
@@ -3478,7 +3336,7 @@
         <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="P8" t="s">
         <v>35</v>
@@ -3487,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="S8" t="s">
         <v>11</v>
@@ -3498,31 +3356,31 @@
         <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="6">
+        <v>101</v>
+      </c>
+      <c r="E9" s="16">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5">
         <v>39082</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>39082</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>101</v>
+      <c r="I9" s="17">
+        <v>2006</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="M9" t="s">
         <v>0</v>
@@ -3531,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="P9" t="s">
         <v>30</v>
@@ -3540,7 +3398,7 @@
         <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="S9" t="s">
         <v>11</v>
@@ -3551,31 +3409,31 @@
         <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="6">
+        <v>102</v>
+      </c>
+      <c r="E10" s="16">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5">
         <v>39447</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>39447</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>102</v>
+      <c r="I10" s="17">
+        <v>2007</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="M10" t="s">
         <v>0</v>
@@ -3584,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="P10" t="s">
         <v>34</v>
@@ -3604,28 +3462,28 @@
         <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="6">
+        <v>103</v>
+      </c>
+      <c r="E11" s="16">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5">
         <v>39813</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>39813</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>103</v>
+      <c r="I11" s="17">
+        <v>2008</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
         <v>25</v>
@@ -3637,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="P11" t="s">
         <v>32</v>
@@ -3646,7 +3504,7 @@
         <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="S11" t="s">
         <v>11</v>
@@ -3657,28 +3515,28 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="6">
+        <v>256</v>
+      </c>
+      <c r="E12" s="16">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5">
         <v>40178</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>40178</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>97</v>
+      <c r="I12" s="17">
+        <v>2009</v>
+      </c>
+      <c r="J12" s="17">
+        <v>2009</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s">
         <v>81</v>
@@ -3690,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="P12" t="s">
         <v>30</v>
@@ -3699,7 +3557,7 @@
         <v>24</v>
       </c>
       <c r="R12" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="S12" t="s">
         <v>11</v>
@@ -3710,31 +3568,31 @@
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
-        <v>307</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="6">
+        <v>257</v>
+      </c>
+      <c r="E13" s="16">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5">
         <v>40543</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>40543</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>98</v>
+      <c r="I13" s="17">
+        <v>2010</v>
+      </c>
+      <c r="J13" s="17">
+        <v>2010</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L13" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="M13" t="s">
         <v>24</v>
@@ -3743,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="P13" t="s">
         <v>30</v>
@@ -3765,19 +3623,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="V1" activeCellId="1" sqref="U1:U1048576 V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
@@ -3792,8 +3650,8 @@
     <col min="15" max="15" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3801,10 +3659,10 @@
       <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -3838,21 +3696,21 @@
         <v>65</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="R1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="R1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="15" t="s">
         <v>48</v>
       </c>
       <c r="T1" s="3" t="s">
@@ -3863,10 +3721,10 @@
       <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3903,7 +3761,7 @@
         <v>22</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>1</v>
@@ -3911,10 +3769,10 @@
       <c r="Q2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="15" t="s">
         <v>54</v>
       </c>
       <c r="T2" s="3" t="s">
@@ -3925,10 +3783,10 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3973,10 +3831,10 @@
       <c r="Q3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="R3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="T3" s="3" t="s">
@@ -3987,14 +3845,14 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>130</v>
+      <c r="B4" s="16">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="16">
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -4011,25 +3869,24 @@
       <c r="I4">
         <v>100</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>36892</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>36892</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>37256</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>37256</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4" t="s">
-        <v>94</v>
+      <c r="S4" s="16">
+        <v>2001</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>11</v>
@@ -4039,14 +3896,14 @@
       <c r="A5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>131</v>
+      <c r="B5" s="16">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="16">
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -4063,33 +3920,32 @@
       <c r="I5">
         <v>100</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>37257</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>37257</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>37621</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>37621</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P5" s="6">
+        <v>266</v>
+      </c>
+      <c r="P5" s="5">
         <v>37257</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>37257</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="4" t="s">
-        <v>95</v>
+      <c r="S5" s="16">
+        <v>2002</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>11</v>
@@ -4099,14 +3955,14 @@
       <c r="A6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>132</v>
+      <c r="B6" s="16">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="16">
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -4123,33 +3979,32 @@
       <c r="I6">
         <v>100</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>37622</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>37622</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>37986</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>37986</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="P6" s="6">
+        <v>267</v>
+      </c>
+      <c r="P6" s="5">
         <v>37622</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>37622</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="4" t="s">
-        <v>96</v>
+      <c r="S6" s="16">
+        <v>2003</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>11</v>
@@ -4159,14 +4014,14 @@
       <c r="A7" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>133</v>
+      <c r="B7" s="16">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="16">
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>66.510000000000005</v>
@@ -4183,35 +4038,35 @@
       <c r="I7">
         <v>1.89</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>37987</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>37987</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>38352</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>38352</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P7" s="6">
+        <v>266</v>
+      </c>
+      <c r="P7" s="5">
         <v>37987</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>37987</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>99</v>
+      <c r="R7" s="16">
+        <v>2004</v>
+      </c>
+      <c r="S7" s="16">
+        <v>2004</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>11</v>
@@ -4221,14 +4076,14 @@
       <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>134</v>
+      <c r="B8" s="16">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="16">
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>3.82</v>
@@ -4245,35 +4100,35 @@
       <c r="I8">
         <v>48.26</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>38353</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>38353</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>38717</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>38717</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="P8" s="6">
+        <v>267</v>
+      </c>
+      <c r="P8" s="5">
         <v>38353</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>38353</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>100</v>
+      <c r="R8" s="16">
+        <v>2005</v>
+      </c>
+      <c r="S8" s="16">
+        <v>2005</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>11</v>
@@ -4283,14 +4138,14 @@
       <c r="A9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>135</v>
+      <c r="B9" s="16">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="16">
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>98.26</v>
@@ -4307,35 +4162,35 @@
       <c r="I9">
         <v>10.51</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>38718</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>38718</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>39082</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>39082</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P9" s="6">
+        <v>266</v>
+      </c>
+      <c r="P9" s="5">
         <v>38718</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>38718</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>101</v>
+      <c r="R9" s="16">
+        <v>2006</v>
+      </c>
+      <c r="S9" s="16">
+        <v>2006</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>11</v>
@@ -4345,14 +4200,14 @@
       <c r="A10" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>136</v>
+      <c r="B10" s="16">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="16">
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>36.17</v>
@@ -4369,25 +4224,24 @@
       <c r="I10">
         <v>11.04</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>39083</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>39083</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>39447</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>39447</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>85</v>
       </c>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4" t="s">
-        <v>102</v>
+      <c r="S10" s="16">
+        <v>2007</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>11</v>
@@ -4397,14 +4251,14 @@
       <c r="A11" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>137</v>
+      <c r="B11" s="16">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="16">
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>94.87</v>
@@ -4421,33 +4275,32 @@
       <c r="I11">
         <v>84.71</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>39448</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>39448</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>39813</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>39813</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>86</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P11" s="6">
+        <v>266</v>
+      </c>
+      <c r="P11" s="5">
         <v>39448</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>39448</v>
       </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="4" t="s">
-        <v>103</v>
+      <c r="S11" s="16">
+        <v>2008</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>11</v>
@@ -4457,14 +4310,14 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>138</v>
+      <c r="B12" s="16">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="16">
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E12">
         <v>17.97</v>
@@ -4481,33 +4334,32 @@
       <c r="I12">
         <v>35.61</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>39814</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>39814</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>40178</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>40178</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>87</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="P12" s="6">
+        <v>267</v>
+      </c>
+      <c r="P12" s="5">
         <v>39814</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>39814</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="4" t="s">
-        <v>97</v>
+      <c r="S12" s="16">
+        <v>2009</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>11</v>
@@ -4517,14 +4369,14 @@
       <c r="A13" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>224</v>
+      <c r="B13" s="16">
+        <v>1010</v>
+      </c>
+      <c r="C13" s="16">
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>1.72</v>
@@ -4541,33 +4393,32 @@
       <c r="I13">
         <v>85.86</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>40179</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>40179</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>40543</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>40543</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P13" s="6">
+        <v>266</v>
+      </c>
+      <c r="P13" s="5">
         <v>40179</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>40179</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="4" t="s">
-        <v>98</v>
+      <c r="S13" s="16">
+        <v>2010</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>11</v>
@@ -4577,14 +4428,14 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>139</v>
+      <c r="B14" s="16">
+        <v>2001</v>
+      </c>
+      <c r="C14" s="16">
+        <v>201</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -4601,25 +4452,24 @@
       <c r="I14">
         <v>100</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>36892</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>36892</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>37256</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>37256</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4" t="s">
-        <v>94</v>
+      <c r="S14" s="16">
+        <v>2001</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>11</v>
@@ -4629,14 +4479,14 @@
       <c r="A15" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>140</v>
+      <c r="B15" s="16">
+        <v>2002</v>
+      </c>
+      <c r="C15" s="16">
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -4653,33 +4503,32 @@
       <c r="I15">
         <v>100</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>37257</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>37257</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>37621</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>37621</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P15" s="6">
+        <v>266</v>
+      </c>
+      <c r="P15" s="5">
         <v>37257</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <v>37257</v>
       </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="4" t="s">
-        <v>95</v>
+      <c r="S15" s="16">
+        <v>2002</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>11</v>
@@ -4689,14 +4538,14 @@
       <c r="A16" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>141</v>
+      <c r="B16" s="16">
+        <v>2003</v>
+      </c>
+      <c r="C16" s="16">
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -4713,33 +4562,32 @@
       <c r="I16">
         <v>100</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>37622</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>37622</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>37986</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>37986</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="P16" s="6">
+        <v>267</v>
+      </c>
+      <c r="P16" s="5">
         <v>37622</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>37622</v>
       </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="4" t="s">
-        <v>96</v>
+      <c r="S16" s="16">
+        <v>2003</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>11</v>
@@ -4749,14 +4597,14 @@
       <c r="A17" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>142</v>
+      <c r="B17" s="16">
+        <v>2004</v>
+      </c>
+      <c r="C17" s="16">
+        <v>204</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E17">
         <v>66.510000000000005</v>
@@ -4773,35 +4621,35 @@
       <c r="I17">
         <v>1.89</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>37987</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>37987</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>38352</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>38352</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P17" s="6">
+        <v>266</v>
+      </c>
+      <c r="P17" s="5">
         <v>37987</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="5">
         <v>37987</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>99</v>
+      <c r="R17" s="16">
+        <v>2004</v>
+      </c>
+      <c r="S17" s="16">
+        <v>2004</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>11</v>
@@ -4811,14 +4659,14 @@
       <c r="A18" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>143</v>
+      <c r="B18" s="16">
+        <v>2005</v>
+      </c>
+      <c r="C18" s="16">
+        <v>205</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E18">
         <v>3.82</v>
@@ -4835,35 +4683,35 @@
       <c r="I18">
         <v>48.26</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>38353</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>38353</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>38717</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>38717</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="P18" s="6">
+        <v>267</v>
+      </c>
+      <c r="P18" s="5">
         <v>38353</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <v>38353</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>100</v>
+      <c r="R18" s="16">
+        <v>2005</v>
+      </c>
+      <c r="S18" s="16">
+        <v>2005</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>11</v>
@@ -4873,14 +4721,14 @@
       <c r="A19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>144</v>
+      <c r="B19" s="16">
+        <v>2006</v>
+      </c>
+      <c r="C19" s="16">
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E19">
         <v>98.26</v>
@@ -4897,35 +4745,35 @@
       <c r="I19">
         <v>10.51</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>38718</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>38718</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>39082</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>39082</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P19" s="6">
+        <v>266</v>
+      </c>
+      <c r="P19" s="5">
         <v>38718</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="5">
         <v>38718</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>101</v>
+      <c r="R19" s="16">
+        <v>2006</v>
+      </c>
+      <c r="S19" s="16">
+        <v>2006</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>11</v>
@@ -4935,14 +4783,14 @@
       <c r="A20" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>145</v>
+      <c r="B20" s="16">
+        <v>2007</v>
+      </c>
+      <c r="C20" s="16">
+        <v>207</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E20">
         <v>36.17</v>
@@ -4959,25 +4807,24 @@
       <c r="I20">
         <v>11.04</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>39083</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>39083</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>39447</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>39447</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>85</v>
       </c>
       <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4" t="s">
-        <v>102</v>
+      <c r="S20" s="16">
+        <v>2007</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>11</v>
@@ -4987,14 +4834,14 @@
       <c r="A21" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>146</v>
+      <c r="B21" s="16">
+        <v>2008</v>
+      </c>
+      <c r="C21" s="16">
+        <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E21">
         <v>94.87</v>
@@ -5011,33 +4858,32 @@
       <c r="I21">
         <v>84.71</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>39448</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>39448</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>39813</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>39813</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>86</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P21" s="6">
+        <v>266</v>
+      </c>
+      <c r="P21" s="5">
         <v>39448</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="5">
         <v>39448</v>
       </c>
-      <c r="R21" s="6"/>
-      <c r="S21" s="4" t="s">
-        <v>103</v>
+      <c r="S21" s="16">
+        <v>2008</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>11</v>
@@ -5047,14 +4893,14 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>147</v>
+      <c r="B22" s="16">
+        <v>2009</v>
+      </c>
+      <c r="C22" s="16">
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E22">
         <v>17.97</v>
@@ -5071,33 +4917,32 @@
       <c r="I22">
         <v>35.61</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>39814</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>39814</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>40178</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>40178</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>87</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="P22" s="6">
+        <v>267</v>
+      </c>
+      <c r="P22" s="5">
         <v>39814</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="5">
         <v>39814</v>
       </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="4" t="s">
-        <v>97</v>
+      <c r="S22" s="16">
+        <v>2009</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>11</v>
@@ -5107,14 +4952,14 @@
       <c r="A23" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>148</v>
+      <c r="B23" s="16">
+        <v>2010</v>
+      </c>
+      <c r="C23" s="16">
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E23">
         <v>1.72</v>
@@ -5131,33 +4976,32 @@
       <c r="I23">
         <v>85.86</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>40179</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>40179</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>40543</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>40543</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P23" s="6">
+        <v>266</v>
+      </c>
+      <c r="P23" s="5">
         <v>40179</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="5">
         <v>40179</v>
       </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="4" t="s">
-        <v>98</v>
+      <c r="S23" s="16">
+        <v>2010</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>11</v>
@@ -5167,14 +5011,14 @@
       <c r="A24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>152</v>
+      <c r="B24" s="16">
+        <v>2011</v>
+      </c>
+      <c r="C24" s="16">
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E24">
         <v>17.97</v>
@@ -5191,33 +5035,32 @@
       <c r="I24">
         <v>35.61</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>40179</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>40179</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>40543</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>40543</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="P24" s="6">
+        <v>267</v>
+      </c>
+      <c r="P24" s="5">
         <v>40179</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="5">
         <v>40179</v>
       </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="4" t="s">
-        <v>98</v>
+      <c r="S24" s="16">
+        <v>2010</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>11</v>
@@ -5227,14 +5070,14 @@
       <c r="A25" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>153</v>
+      <c r="B25" s="16">
+        <v>2012</v>
+      </c>
+      <c r="C25" s="16">
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E25">
         <v>1.72</v>
@@ -5251,33 +5094,32 @@
       <c r="I25">
         <v>85.86</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>40179</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>40179</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>40543</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>40543</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P25" s="6">
+        <v>266</v>
+      </c>
+      <c r="P25" s="5">
         <v>40179</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <v>40179</v>
       </c>
-      <c r="R25" s="6"/>
-      <c r="S25" s="4" t="s">
-        <v>98</v>
+      <c r="S25" s="16">
+        <v>2010</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>11</v>
@@ -5290,28 +5132,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -5322,10 +5164,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -5336,10 +5178,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5350,168 +5192,168 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>94</v>
+      <c r="A4" s="16">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2001</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>95</v>
+      <c r="A5" s="16">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2002</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>96</v>
+      <c r="A6" s="16">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2003</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>99</v>
+      <c r="A7" s="16">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="16">
+        <v>2004</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>100</v>
+      <c r="A8" s="16">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2005</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>101</v>
+      <c r="A9" s="16">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2006</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>102</v>
+      <c r="A10" s="16">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2007</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>103</v>
+      <c r="A11" s="16">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="16">
+        <v>2008</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>97</v>
+      <c r="A12" s="16">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2009</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>98</v>
+      <c r="A13" s="16">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="16">
+        <v>2010</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>150</v>
+      <c r="A14" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="16">
+        <v>2011</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>151</v>
+      <c r="A15" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2012</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -5523,7 +5365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5665,10 +5507,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -5690,7 +5532,7 @@
         <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -5729,7 +5571,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -5743,7 +5585,7 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -5757,7 +5599,7 @@
         <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -5771,7 +5613,7 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -5785,7 +5627,7 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -5799,7 +5641,7 @@
         <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -5813,7 +5655,7 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -5827,7 +5669,7 @@
         <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -5841,7 +5683,7 @@
         <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -5855,7 +5697,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -5869,7 +5711,7 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -5884,7 +5726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5904,96 +5746,96 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>22</v>
@@ -6054,166 +5896,166 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="O6" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="O8" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="O9" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="O10" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="O11" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:P14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:P14">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
